--- a/biology/Zoologie/Criquet_pèlerin/Criquet_pèlerin.xlsx
+++ b/biology/Zoologie/Criquet_pèlerin/Criquet_pèlerin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Criquet_p%C3%A8lerin</t>
+          <t>Criquet_pèlerin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Schistocerca gregaria
 Le criquet pèlerin (Schistocerca gregaria),  appelé aussi sauterelle tigre, est une espèce d'insectes orthoptères caelifères de la famille des Acrididae, sous-famille des Cyrtacanthacridinae et de la tribu des Cyrtacanthacridini.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Criquet_p%C3%A8lerin</t>
+          <t>Criquet_pèlerin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Schistocerca comprend plus de 30 espèces, réparties en Afrique, en Asie et en Amérique du Nord et du Sud, et de nombreuses espèces sont difficiles à identifier en raison de la présence de morphes variables. C'est le seul genre au sein des Cyrtacanthacridinae qui est présent à la fois dans le Nouveau et l'Ancien Monde. La plupart des espèces ont le fastigium fléchi et manquent de carènes latérales sur le pronotum. Les tibias postérieurs ont des marges lisses avec de nombreuses épines, mais n'ont pas d'épine apicale sur la marge externe.  Le deuxième segment tarsien est deux fois moins long que le premier. Les mâles du genre ont de larges cerques anaux et une plaque sous-génitale fendue. On pense que le genre est originaire d'Afrique, puis spécifié dans le Nouveau Monde après un événement de dispersion qui a eu lieu il y a 6 à 7 millions d'années.
 Les insectes en phase solitaire (ou morphe solitaria) sont verdâtres aux premiers stades, tandis que les adultes plus âgés sont grisâtres.  Les sauterelles de la phase solitaire n'ont pas de motifs noirs comme dans la phase grégaire (ou morphe gregaria), où le corps est rosâtre aux premiers stades et jaune chez les adultes.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Criquet_p%C3%A8lerin</t>
+          <t>Criquet_pèlerin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,16 +561,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'espèce Schistocerca gregaria a été décrite par l'entomologiste suédois Forsskål en 1775.
-Synonyme
-Selon Catalogue of Life                                   (15 septembre 2014)[1] :	
-Gryllus gregarius Forskål, 1775 (synonyme)
-Sous-espèces
-Selon Catalogue of Life                                   (15 septembre 2014)[1] :
-Schistocerca gregaria flaviventris (Burmeister, 1838)
-Schistocerca gregaria gregaria (Forskal, 1775)</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'espèce Schistocerca gregaria a été décrite par l'entomologiste suédois Forsskål en 1775.</t>
         </is>
       </c>
     </row>
@@ -566,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Criquet_p%C3%A8lerin</t>
+          <t>Criquet_pèlerin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,13 +590,90 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (15 septembre 2014) :	
+Gryllus gregarius Forskål, 1775 (synonyme)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Criquet_pèlerin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Criquet_p%C3%A8lerin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (15 septembre 2014) :
+Schistocerca gregaria flaviventris (Burmeister, 1838)
+Schistocerca gregaria gregaria (Forskal, 1775)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Criquet_pèlerin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Criquet_p%C3%A8lerin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Lutte contre les criquets pèlerins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis plusieurs années, la FAO a pris des mesures afin de lutter contre cette espèce particulièrement présente en Éthiopie, au Kenya et en Somalie. Dans des pays déjà affaiblis d'un point de vue alimentaire, cet insecte accroît le risque de pertes des cultures. Dans ces régions, l'application de pesticides chimiques ou de biopesticides demeure indispensable, et malgré la pandémie de Covid-19, l'agence onusienne continue et maintient ses actions en région.
-Afin de suivre l'évolution du phénomène et limiter la recrudescence, elle a également mis au point une application eLocust3, qui enregistre et transmet des données en temps réel aux centres nationaux d'observation du criquet pèlerin et au service d'information du criquet pèlerin (DLIS), basé au siège de la FAO, à Rome[2].
+Afin de suivre l'évolution du phénomène et limiter la recrudescence, elle a également mis au point une application eLocust3, qui enregistre et transmet des données en temps réel aux centres nationaux d'observation du criquet pèlerin et au service d'information du criquet pèlerin (DLIS), basé au siège de la FAO, à Rome.
 </t>
         </is>
       </c>
